--- a/goTripcyContent/resources/excel/sample.xlsx
+++ b/goTripcyContent/resources/excel/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,25 +12,512 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>sfsdfds</t>
-  </si>
-  <si>
-    <t>sdfdsf</t>
-  </si>
-  <si>
-    <t>fedfdsf</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>fewfwef</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="167">
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>Leaving</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia-Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar (Burma)</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tanzania &amp; Zanzibar</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Febuary</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -66,7 +553,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -362,16 +850,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -380,65 +873,1576 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2">
-        <v>1111</v>
-      </c>
-      <c r="E2">
-        <v>11111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>222</v>
-      </c>
-      <c r="D3">
-        <v>2222</v>
-      </c>
-      <c r="E3">
-        <v>22222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>333</v>
-      </c>
-      <c r="D4">
-        <v>3333</v>
-      </c>
-      <c r="E4">
-        <v>33333</v>
+      <c r="B111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.roughguides.com/country/abu-dhabi/"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://www.roughguides.com/country/afghanistan/"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://www.roughguides.com/destinations/europe/albania"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://www.roughguides.com/country/andorra-europe/"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://www.roughguides.com/destinations/south-america/argentina"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://www.roughguides.com/country/armenia/"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://www.roughguides.com/destinations/australasia/australia"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://www.roughguides.com/destinations/europe/austria"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://www.roughguides.com/country/bahamas/"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://www.roughguides.com/country/bangladesh/"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://www.roughguides.com/country/barbados/"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://www.roughguides.com/country/belarus/"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://www.roughguides.com/destinations/europe/belgium"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://www.roughguides.com/destinations/central-america-the-caribbean/belize"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://www.roughguides.com/country/benin/"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://www.roughguides.com/country/bermuda/"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.roughguides.com/country/bhutan/"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://www.roughguides.com/destinations/south-america/bolivia"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://www.roughguides.com/destinations/europe/bosnia-herzegovina"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://www.roughguides.com/country/botswana/"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://www.roughguides.com/destinations/south-america/brazil"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://www.roughguides.com/country/brunei/"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://www.roughguides.com/destinations/europe/bulgaria"/>
+    <hyperlink ref="A25" r:id="rId24" display="http://www.roughguides.com/destinations/asia/cambodia"/>
+    <hyperlink ref="A26" r:id="rId25" display="http://www.roughguides.com/destinations/north-america/canada"/>
+    <hyperlink ref="A27" r:id="rId26" display="http://www.roughguides.com/destinations/south-america/chile"/>
+    <hyperlink ref="A28" r:id="rId27" display="http://www.roughguides.com/destinations/asia/china"/>
+    <hyperlink ref="A29" r:id="rId28" display="http://www.roughguides.com/destinations/south-america/colombia"/>
+    <hyperlink ref="A30" r:id="rId29" display="http://www.roughguides.com/destinations/central-america-the-caribbean/costa-rica"/>
+    <hyperlink ref="A31" r:id="rId30" display="http://www.roughguides.com/destinations/europe/croatia"/>
+    <hyperlink ref="A32" r:id="rId31" display="http://www.roughguides.com/destinations/central-america-the-caribbean/cuba"/>
+    <hyperlink ref="A33" r:id="rId32" display="http://www.roughguides.com/destinations/europe/cyprus"/>
+    <hyperlink ref="A34" r:id="rId33" display="http://www.roughguides.com/destinations/europe/czech-republic"/>
+    <hyperlink ref="A35" r:id="rId34" display="http://www.roughguides.com/destinations/europe/denmark"/>
+    <hyperlink ref="A36" r:id="rId35" display="http://www.roughguides.com/destinations/middle-east/dubai"/>
+    <hyperlink ref="A37" r:id="rId36" display="http://www.roughguides.com/destinations/south-america/ecuador"/>
+    <hyperlink ref="A38" r:id="rId37" display="http://www.roughguides.com/destinations/africa/egypt"/>
+    <hyperlink ref="A39" r:id="rId38" display="http://www.roughguides.com/country/el-salvador/"/>
+    <hyperlink ref="A40" r:id="rId39" display="http://www.roughguides.com/destinations/europe/england"/>
+    <hyperlink ref="A41" r:id="rId40" display="http://www.roughguides.com/destinations/europe/estonia"/>
+    <hyperlink ref="A42" r:id="rId41" display="http://www.roughguides.com/destinations/africa/ethiopia"/>
+    <hyperlink ref="A43" r:id="rId42" display="http://www.roughguides.com/destinations/australasia/fiji"/>
+    <hyperlink ref="A44" r:id="rId43" display="http://www.roughguides.com/destinations/europe/finland"/>
+    <hyperlink ref="A45" r:id="rId44" display="http://www.roughguides.com/destinations/europe/france"/>
+    <hyperlink ref="A46" r:id="rId45" display="http://www.roughguides.com/country/gabon/"/>
+    <hyperlink ref="A47" r:id="rId46" display="http://www.roughguides.com/country/gambia/"/>
+    <hyperlink ref="A48" r:id="rId47" display="http://www.roughguides.com/country/georgia/"/>
+    <hyperlink ref="A49" r:id="rId48" display="http://www.roughguides.com/destinations/europe/germany"/>
+    <hyperlink ref="A50" r:id="rId49" display="http://www.roughguides.com/country/ghana/"/>
+    <hyperlink ref="A51" r:id="rId50" display="http://www.roughguides.com/destinations/europe/greece"/>
+    <hyperlink ref="A52" r:id="rId51" display="http://www.roughguides.com/country/greenland/"/>
+    <hyperlink ref="A53" r:id="rId52" display="http://www.roughguides.com/country/grenada/"/>
+    <hyperlink ref="A54" r:id="rId53" display="http://www.roughguides.com/destinations/central-america-the-caribbean/guatemala"/>
+    <hyperlink ref="A55" r:id="rId54" display="http://www.roughguides.com/country/guinea/"/>
+    <hyperlink ref="A56" r:id="rId55" display="http://www.roughguides.com/country/guyana/"/>
+    <hyperlink ref="A57" r:id="rId56" display="http://www.roughguides.com/destinations/central-america-the-caribbean/honduras"/>
+    <hyperlink ref="A58" r:id="rId57" display="http://www.roughguides.com/destinations/europe/hungary"/>
+    <hyperlink ref="A59" r:id="rId58" display="http://www.roughguides.com/destinations/europe/iceland"/>
+    <hyperlink ref="A60" r:id="rId59" display="http://www.roughguides.com/destinations/asia/india"/>
+    <hyperlink ref="A61" r:id="rId60" display="http://www.roughguides.com/destinations/asia/indonesia"/>
+    <hyperlink ref="A62" r:id="rId61" display="http://www.roughguides.com/country/iran/"/>
+    <hyperlink ref="A63" r:id="rId62" display="http://www.roughguides.com/destinations/europe/ireland"/>
+    <hyperlink ref="A64" r:id="rId63" display="http://www.roughguides.com/country/israel/"/>
+    <hyperlink ref="A65" r:id="rId64" display="http://www.roughguides.com/destinations/europe/italy"/>
+    <hyperlink ref="A66" r:id="rId65" display="http://www.roughguides.com/destinations/central-america-the-caribbean/jamaica"/>
+    <hyperlink ref="A67" r:id="rId66" display="http://www.roughguides.com/destinations/asia/japan"/>
+    <hyperlink ref="A68" r:id="rId67" display="http://www.roughguides.com/destinations/middle-east/jordan"/>
+    <hyperlink ref="A69" r:id="rId68" display="http://www.roughguides.com/country/kazakhstan/"/>
+    <hyperlink ref="A70" r:id="rId69" display="http://www.roughguides.com/destinations/africa/kenya"/>
+    <hyperlink ref="A71" r:id="rId70" display="http://www.roughguides.com/country/kosovo/"/>
+    <hyperlink ref="A72" r:id="rId71" display="http://www.roughguides.com/country/kuwait/"/>
+    <hyperlink ref="A73" r:id="rId72" display="http://www.roughguides.com/destinations/asia/laos"/>
+    <hyperlink ref="A74" r:id="rId73" display="http://www.roughguides.com/destinations/europe/latvia"/>
+    <hyperlink ref="A75" r:id="rId74" display="http://www.roughguides.com/country/lebanon/"/>
+    <hyperlink ref="A76" r:id="rId75" display="http://www.roughguides.com/country/lesotho/"/>
+    <hyperlink ref="A77" r:id="rId76" display="http://www.roughguides.com/country/libya/"/>
+    <hyperlink ref="A78" r:id="rId77" display="http://www.roughguides.com/destinations/europe/lithuania"/>
+    <hyperlink ref="A79" r:id="rId78" display="http://www.roughguides.com/country/luxembourg/"/>
+    <hyperlink ref="A80" r:id="rId79" display="http://www.roughguides.com/destinations/africa/madagascar"/>
+    <hyperlink ref="A81" r:id="rId80" display="http://www.roughguides.com/country/malawi/"/>
+    <hyperlink ref="A82" r:id="rId81" display="http://www.roughguides.com/destinations/asia/malaysia"/>
+    <hyperlink ref="A83" r:id="rId82" display="http://www.roughguides.com/country/maldives/"/>
+    <hyperlink ref="A84" r:id="rId83" display="http://www.roughguides.com/country/mali/"/>
+    <hyperlink ref="A85" r:id="rId84" display="http://www.roughguides.com/country/malta/"/>
+    <hyperlink ref="A86" r:id="rId85" display="http://www.roughguides.com/destinations/africa/mauritius"/>
+    <hyperlink ref="A87" r:id="rId86" display="http://www.roughguides.com/destinations/north-america/mexico"/>
+    <hyperlink ref="A88" r:id="rId87" display="http://www.roughguides.com/country/monaco-europe/"/>
+    <hyperlink ref="A89" r:id="rId88" display="http://www.roughguides.com/country/mongolia/"/>
+    <hyperlink ref="A90" r:id="rId89" display="http://www.roughguides.com/destinations/europe/montenegro"/>
+    <hyperlink ref="A91" r:id="rId90" display="http://www.roughguides.com/destinations/africa/morocco"/>
+    <hyperlink ref="A92" r:id="rId91" display="http://www.roughguides.com/country/mozambique/"/>
+    <hyperlink ref="A93" r:id="rId92" display="http://www.roughguides.com/destinations/asia/myanmar-burma"/>
+    <hyperlink ref="A94" r:id="rId93" display="http://www.roughguides.com/destinations/africa/namibia"/>
+    <hyperlink ref="A95" r:id="rId94" display="http://www.roughguides.com/destinations/asia/nepal"/>
+    <hyperlink ref="A96" r:id="rId95" display="http://www.roughguides.com/destinations/europe/netherlands"/>
+    <hyperlink ref="A97" r:id="rId96" display="http://www.roughguides.com/destinations/australasia/new-zealand"/>
+    <hyperlink ref="A98" r:id="rId97" display="http://www.roughguides.com/destinations/central-america-the-caribbean/nicaragua"/>
+    <hyperlink ref="A99" r:id="rId98" display="http://www.roughguides.com/destinations/north-america/nicaragua-north-america"/>
+    <hyperlink ref="A100" r:id="rId99" display="http://www.roughguides.com/country/niger/"/>
+    <hyperlink ref="A101" r:id="rId100" display="http://www.roughguides.com/country/nigeria/"/>
+    <hyperlink ref="A102" r:id="rId101" display="http://www.roughguides.com/destinations/europe/norway"/>
+    <hyperlink ref="A103" r:id="rId102" display="http://www.roughguides.com/destinations/middle-east/oman"/>
+    <hyperlink ref="A104" r:id="rId103" display="http://www.roughguides.com/country/pakistan/"/>
+    <hyperlink ref="A105" r:id="rId104" display="http://www.roughguides.com/destinations/central-america-the-caribbean/panama"/>
+    <hyperlink ref="A106" r:id="rId105" display="http://www.roughguides.com/country/papua-new-guinea/"/>
+    <hyperlink ref="A107" r:id="rId106" display="http://www.roughguides.com/country/paraguay/"/>
+    <hyperlink ref="A108" r:id="rId107" display="http://www.roughguides.com/destinations/south-america/peru"/>
+    <hyperlink ref="A109" r:id="rId108" display="http://www.roughguides.com/destinations/asia/philippines"/>
+    <hyperlink ref="A110" r:id="rId109" display="http://www.roughguides.com/destinations/europe/poland"/>
+    <hyperlink ref="A111" r:id="rId110" display="http://www.roughguides.com/destinations/europe/portugal"/>
+    <hyperlink ref="A112" r:id="rId111" display="http://www.roughguides.com/destinations/central-america-the-caribbean/puerto-rico"/>
+    <hyperlink ref="A113" r:id="rId112" display="http://www.roughguides.com/country/qatar/"/>
+    <hyperlink ref="A114" r:id="rId113" display="http://www.roughguides.com/destinations/europe/romania"/>
+    <hyperlink ref="A115" r:id="rId114" display="http://www.roughguides.com/destinations/europe/russia"/>
+    <hyperlink ref="A116" r:id="rId115" display="http://www.roughguides.com/country/rwanda/"/>
+    <hyperlink ref="A117" r:id="rId116" display="http://www.roughguides.com/country/samoa/"/>
+    <hyperlink ref="A118" r:id="rId117" display="http://www.roughguides.com/country/saudi-arabia/"/>
+    <hyperlink ref="A119" r:id="rId118" display="http://www.roughguides.com/destinations/europe/scotland"/>
+    <hyperlink ref="A120" r:id="rId119" display="http://www.roughguides.com/country/senegal/"/>
+    <hyperlink ref="A121" r:id="rId120" display="http://www.roughguides.com/destinations/europe/serbia"/>
+    <hyperlink ref="A122" r:id="rId121" display="http://www.roughguides.com/country/seychelles/"/>
+    <hyperlink ref="A123" r:id="rId122" display="http://www.roughguides.com/destinations/asia/singapore"/>
+    <hyperlink ref="A124" r:id="rId123" display="http://www.roughguides.com/destinations/europe/slovakia"/>
+    <hyperlink ref="A125" r:id="rId124" display="http://www.roughguides.com/destinations/europe/slovenia"/>
+    <hyperlink ref="A126" r:id="rId125" display="http://www.roughguides.com/destinations/africa/south-africa"/>
+    <hyperlink ref="A127" r:id="rId126" display="http://www.roughguides.com/destinations/asia/south-korea"/>
+    <hyperlink ref="A128" r:id="rId127" display="http://www.roughguides.com/destinations/europe/spain"/>
+    <hyperlink ref="A129" r:id="rId128" display="http://www.roughguides.com/destinations/asia/sri-lanka"/>
+    <hyperlink ref="A130" r:id="rId129" display="http://www.roughguides.com/country/sudan/"/>
+    <hyperlink ref="A131" r:id="rId130" display="http://www.roughguides.com/country/swaziland/"/>
+    <hyperlink ref="A132" r:id="rId131" display="http://www.roughguides.com/destinations/europe/sweden"/>
+    <hyperlink ref="A133" r:id="rId132" display="http://www.roughguides.com/destinations/europe/switzerland"/>
+    <hyperlink ref="A134" r:id="rId133" display="http://www.roughguides.com/country/syria/"/>
+    <hyperlink ref="A135" r:id="rId134" display="http://www.roughguides.com/destinations/asia/taiwan"/>
+    <hyperlink ref="A136" r:id="rId135" display="http://www.roughguides.com/country/tanzania-zanzibar/"/>
+    <hyperlink ref="A137" r:id="rId136" display="http://www.roughguides.com/destinations/asia/thailand"/>
+    <hyperlink ref="A138" r:id="rId137" display="http://www.roughguides.com/destinations/central-america-the-caribbean/trinidad-tobago"/>
+    <hyperlink ref="A139" r:id="rId138" display="http://www.roughguides.com/country/tunisia/"/>
+    <hyperlink ref="A140" r:id="rId139" display="http://www.roughguides.com/destinations/europe/turkey"/>
+    <hyperlink ref="A141" r:id="rId140" display="http://www.roughguides.com/country/turkmenistan/"/>
+    <hyperlink ref="A142" r:id="rId141" display="http://www.roughguides.com/country/tuvalu/"/>
+    <hyperlink ref="A143" r:id="rId142" display="http://www.roughguides.com/country/uganda/"/>
+    <hyperlink ref="A144" r:id="rId143" display="http://www.roughguides.com/country/ukraine/"/>
+    <hyperlink ref="A145" r:id="rId144" display="http://www.roughguides.com/country/united-arab-emirates/"/>
+    <hyperlink ref="A146" r:id="rId145" display="http://www.roughguides.com/country/gb/"/>
+    <hyperlink ref="A147" r:id="rId146" display="http://www.roughguides.com/country/uruguay/"/>
+    <hyperlink ref="A148" r:id="rId147" display="http://www.roughguides.com/destinations/north-america/usa"/>
+    <hyperlink ref="A149" r:id="rId148" display="http://www.roughguides.com/country/uzbekistan/"/>
+    <hyperlink ref="A150" r:id="rId149" display="http://www.roughguides.com/country/vanuatu/"/>
+    <hyperlink ref="A151" r:id="rId150" display="http://www.roughguides.com/country/venezuela/"/>
+    <hyperlink ref="A152" r:id="rId151" display="http://www.roughguides.com/destinations/asia/vietnam"/>
+    <hyperlink ref="A153" r:id="rId152" display="http://www.roughguides.com/destinations/europe/wales"/>
+    <hyperlink ref="A154" r:id="rId153" display="http://www.roughguides.com/country/yemen/"/>
+    <hyperlink ref="B2" r:id="rId154" display="http://www.roughguides.com/country/abu-dhabi/"/>
+    <hyperlink ref="B3" r:id="rId155" display="http://www.roughguides.com/country/afghanistan/"/>
+    <hyperlink ref="B4" r:id="rId156" display="http://www.roughguides.com/destinations/europe/albania"/>
+    <hyperlink ref="B5" r:id="rId157" display="http://www.roughguides.com/country/andorra-europe/"/>
+    <hyperlink ref="B6" r:id="rId158" display="http://www.roughguides.com/destinations/south-america/argentina"/>
+    <hyperlink ref="B7" r:id="rId159" display="http://www.roughguides.com/country/armenia/"/>
+    <hyperlink ref="B8" r:id="rId160" display="http://www.roughguides.com/destinations/australasia/australia"/>
+    <hyperlink ref="B9" r:id="rId161" display="http://www.roughguides.com/destinations/europe/austria"/>
+    <hyperlink ref="B10" r:id="rId162" display="http://www.roughguides.com/country/bahamas/"/>
+    <hyperlink ref="B11" r:id="rId163" display="http://www.roughguides.com/country/bangladesh/"/>
+    <hyperlink ref="B12" r:id="rId164" display="http://www.roughguides.com/country/barbados/"/>
+    <hyperlink ref="B13" r:id="rId165" display="http://www.roughguides.com/country/belarus/"/>
+    <hyperlink ref="B14" r:id="rId166" display="http://www.roughguides.com/destinations/europe/belgium"/>
+    <hyperlink ref="B15" r:id="rId167" display="http://www.roughguides.com/destinations/central-america-the-caribbean/belize"/>
+    <hyperlink ref="B16" r:id="rId168" display="http://www.roughguides.com/country/benin/"/>
+    <hyperlink ref="B17" r:id="rId169" display="http://www.roughguides.com/country/bermuda/"/>
+    <hyperlink ref="B18" r:id="rId170" display="http://www.roughguides.com/country/bhutan/"/>
+    <hyperlink ref="B19" r:id="rId171" display="http://www.roughguides.com/destinations/south-america/bolivia"/>
+    <hyperlink ref="B20" r:id="rId172" display="http://www.roughguides.com/destinations/europe/bosnia-herzegovina"/>
+    <hyperlink ref="B21" r:id="rId173" display="http://www.roughguides.com/country/botswana/"/>
+    <hyperlink ref="B22" r:id="rId174" display="http://www.roughguides.com/destinations/south-america/brazil"/>
+    <hyperlink ref="B23" r:id="rId175" display="http://www.roughguides.com/country/brunei/"/>
+    <hyperlink ref="B24" r:id="rId176" display="http://www.roughguides.com/destinations/europe/bulgaria"/>
+    <hyperlink ref="B25" r:id="rId177" display="http://www.roughguides.com/destinations/asia/cambodia"/>
+    <hyperlink ref="B26" r:id="rId178" display="http://www.roughguides.com/destinations/north-america/canada"/>
+    <hyperlink ref="B27" r:id="rId179" display="http://www.roughguides.com/destinations/south-america/chile"/>
+    <hyperlink ref="B28" r:id="rId180" display="http://www.roughguides.com/destinations/asia/china"/>
+    <hyperlink ref="B29" r:id="rId181" display="http://www.roughguides.com/destinations/south-america/colombia"/>
+    <hyperlink ref="B30" r:id="rId182" display="http://www.roughguides.com/destinations/central-america-the-caribbean/costa-rica"/>
+    <hyperlink ref="B31" r:id="rId183" display="http://www.roughguides.com/destinations/europe/croatia"/>
+    <hyperlink ref="B32" r:id="rId184" display="http://www.roughguides.com/destinations/central-america-the-caribbean/cuba"/>
+    <hyperlink ref="B33" r:id="rId185" display="http://www.roughguides.com/destinations/europe/cyprus"/>
+    <hyperlink ref="B34" r:id="rId186" display="http://www.roughguides.com/destinations/europe/czech-republic"/>
+    <hyperlink ref="B35" r:id="rId187" display="http://www.roughguides.com/destinations/europe/denmark"/>
+    <hyperlink ref="B36" r:id="rId188" display="http://www.roughguides.com/destinations/middle-east/dubai"/>
+    <hyperlink ref="B37" r:id="rId189" display="http://www.roughguides.com/destinations/south-america/ecuador"/>
+    <hyperlink ref="B38" r:id="rId190" display="http://www.roughguides.com/destinations/africa/egypt"/>
+    <hyperlink ref="B39" r:id="rId191" display="http://www.roughguides.com/country/el-salvador/"/>
+    <hyperlink ref="B40" r:id="rId192" display="http://www.roughguides.com/destinations/europe/england"/>
+    <hyperlink ref="B41" r:id="rId193" display="http://www.roughguides.com/destinations/europe/estonia"/>
+    <hyperlink ref="B42" r:id="rId194" display="http://www.roughguides.com/destinations/africa/ethiopia"/>
+    <hyperlink ref="B43" r:id="rId195" display="http://www.roughguides.com/destinations/australasia/fiji"/>
+    <hyperlink ref="B44" r:id="rId196" display="http://www.roughguides.com/destinations/europe/finland"/>
+    <hyperlink ref="B45" r:id="rId197" display="http://www.roughguides.com/destinations/europe/france"/>
+    <hyperlink ref="B46" r:id="rId198" display="http://www.roughguides.com/country/gabon/"/>
+    <hyperlink ref="B47" r:id="rId199" display="http://www.roughguides.com/country/gambia/"/>
+    <hyperlink ref="B48" r:id="rId200" display="http://www.roughguides.com/country/georgia/"/>
+    <hyperlink ref="B49" r:id="rId201" display="http://www.roughguides.com/destinations/europe/germany"/>
+    <hyperlink ref="B50" r:id="rId202" display="http://www.roughguides.com/country/ghana/"/>
+    <hyperlink ref="B51" r:id="rId203" display="http://www.roughguides.com/destinations/europe/greece"/>
+    <hyperlink ref="B52" r:id="rId204" display="http://www.roughguides.com/country/greenland/"/>
+    <hyperlink ref="B53" r:id="rId205" display="http://www.roughguides.com/country/grenada/"/>
+    <hyperlink ref="B54" r:id="rId206" display="http://www.roughguides.com/destinations/central-america-the-caribbean/guatemala"/>
+    <hyperlink ref="B55" r:id="rId207" display="http://www.roughguides.com/country/guinea/"/>
+    <hyperlink ref="B56" r:id="rId208" display="http://www.roughguides.com/country/guyana/"/>
+    <hyperlink ref="B57" r:id="rId209" display="http://www.roughguides.com/destinations/central-america-the-caribbean/honduras"/>
+    <hyperlink ref="B58" r:id="rId210" display="http://www.roughguides.com/destinations/europe/hungary"/>
+    <hyperlink ref="B59" r:id="rId211" display="http://www.roughguides.com/destinations/europe/iceland"/>
+    <hyperlink ref="B60" r:id="rId212" display="http://www.roughguides.com/destinations/asia/india"/>
+    <hyperlink ref="B61" r:id="rId213" display="http://www.roughguides.com/destinations/asia/indonesia"/>
+    <hyperlink ref="B62" r:id="rId214" display="http://www.roughguides.com/country/iran/"/>
+    <hyperlink ref="B63" r:id="rId215" display="http://www.roughguides.com/destinations/europe/ireland"/>
+    <hyperlink ref="B64" r:id="rId216" display="http://www.roughguides.com/country/israel/"/>
+    <hyperlink ref="B65" r:id="rId217" display="http://www.roughguides.com/destinations/europe/italy"/>
+    <hyperlink ref="B66" r:id="rId218" display="http://www.roughguides.com/destinations/central-america-the-caribbean/jamaica"/>
+    <hyperlink ref="B67" r:id="rId219" display="http://www.roughguides.com/destinations/asia/japan"/>
+    <hyperlink ref="B68" r:id="rId220" display="http://www.roughguides.com/destinations/middle-east/jordan"/>
+    <hyperlink ref="B69" r:id="rId221" display="http://www.roughguides.com/country/kazakhstan/"/>
+    <hyperlink ref="B70" r:id="rId222" display="http://www.roughguides.com/destinations/africa/kenya"/>
+    <hyperlink ref="B71" r:id="rId223" display="http://www.roughguides.com/country/kosovo/"/>
+    <hyperlink ref="B72" r:id="rId224" display="http://www.roughguides.com/country/kuwait/"/>
+    <hyperlink ref="B73" r:id="rId225" display="http://www.roughguides.com/destinations/asia/laos"/>
+    <hyperlink ref="B74" r:id="rId226" display="http://www.roughguides.com/destinations/europe/latvia"/>
+    <hyperlink ref="B75" r:id="rId227" display="http://www.roughguides.com/country/lebanon/"/>
+    <hyperlink ref="B76" r:id="rId228" display="http://www.roughguides.com/country/lesotho/"/>
+    <hyperlink ref="B77" r:id="rId229" display="http://www.roughguides.com/country/libya/"/>
+    <hyperlink ref="B78" r:id="rId230" display="http://www.roughguides.com/destinations/europe/lithuania"/>
+    <hyperlink ref="B79" r:id="rId231" display="http://www.roughguides.com/country/luxembourg/"/>
+    <hyperlink ref="B80" r:id="rId232" display="http://www.roughguides.com/destinations/africa/madagascar"/>
+    <hyperlink ref="B81" r:id="rId233" display="http://www.roughguides.com/country/malawi/"/>
+    <hyperlink ref="B82" r:id="rId234" display="http://www.roughguides.com/destinations/asia/malaysia"/>
+    <hyperlink ref="B83" r:id="rId235" display="http://www.roughguides.com/country/maldives/"/>
+    <hyperlink ref="B84" r:id="rId236" display="http://www.roughguides.com/country/mali/"/>
+    <hyperlink ref="B85" r:id="rId237" display="http://www.roughguides.com/country/malta/"/>
+    <hyperlink ref="B86" r:id="rId238" display="http://www.roughguides.com/destinations/africa/mauritius"/>
+    <hyperlink ref="B87" r:id="rId239" display="http://www.roughguides.com/destinations/north-america/mexico"/>
+    <hyperlink ref="B88" r:id="rId240" display="http://www.roughguides.com/country/monaco-europe/"/>
+    <hyperlink ref="B89" r:id="rId241" display="http://www.roughguides.com/country/mongolia/"/>
+    <hyperlink ref="B90" r:id="rId242" display="http://www.roughguides.com/destinations/europe/montenegro"/>
+    <hyperlink ref="B91" r:id="rId243" display="http://www.roughguides.com/destinations/africa/morocco"/>
+    <hyperlink ref="B92" r:id="rId244" display="http://www.roughguides.com/country/mozambique/"/>
+    <hyperlink ref="B93" r:id="rId245" display="http://www.roughguides.com/destinations/asia/myanmar-burma"/>
+    <hyperlink ref="B94" r:id="rId246" display="http://www.roughguides.com/destinations/africa/namibia"/>
+    <hyperlink ref="B95" r:id="rId247" display="http://www.roughguides.com/destinations/asia/nepal"/>
+    <hyperlink ref="B96" r:id="rId248" display="http://www.roughguides.com/destinations/europe/netherlands"/>
+    <hyperlink ref="B97" r:id="rId249" display="http://www.roughguides.com/destinations/australasia/new-zealand"/>
+    <hyperlink ref="B98" r:id="rId250" display="http://www.roughguides.com/destinations/central-america-the-caribbean/nicaragua"/>
+    <hyperlink ref="B99" r:id="rId251" display="http://www.roughguides.com/destinations/north-america/nicaragua-north-america"/>
+    <hyperlink ref="B100" r:id="rId252" display="http://www.roughguides.com/country/niger/"/>
+    <hyperlink ref="B101" r:id="rId253" display="http://www.roughguides.com/country/nigeria/"/>
+    <hyperlink ref="B102" r:id="rId254" display="http://www.roughguides.com/destinations/europe/norway"/>
+    <hyperlink ref="B103" r:id="rId255" display="http://www.roughguides.com/destinations/middle-east/oman"/>
+    <hyperlink ref="B104" r:id="rId256" display="http://www.roughguides.com/country/pakistan/"/>
+    <hyperlink ref="B105" r:id="rId257" display="http://www.roughguides.com/destinations/central-america-the-caribbean/panama"/>
+    <hyperlink ref="B106" r:id="rId258" display="http://www.roughguides.com/country/papua-new-guinea/"/>
+    <hyperlink ref="B107" r:id="rId259" display="http://www.roughguides.com/country/paraguay/"/>
+    <hyperlink ref="B108" r:id="rId260" display="http://www.roughguides.com/destinations/south-america/peru"/>
+    <hyperlink ref="B109" r:id="rId261" display="http://www.roughguides.com/destinations/asia/philippines"/>
+    <hyperlink ref="B110" r:id="rId262" display="http://www.roughguides.com/destinations/europe/poland"/>
+    <hyperlink ref="B111" r:id="rId263" display="http://www.roughguides.com/destinations/europe/portugal"/>
+    <hyperlink ref="B112" r:id="rId264" display="http://www.roughguides.com/destinations/central-america-the-caribbean/puerto-rico"/>
+    <hyperlink ref="B113" r:id="rId265" display="http://www.roughguides.com/country/qatar/"/>
+    <hyperlink ref="B114" r:id="rId266" display="http://www.roughguides.com/destinations/europe/romania"/>
+    <hyperlink ref="B115" r:id="rId267" display="http://www.roughguides.com/destinations/europe/russia"/>
+    <hyperlink ref="B116" r:id="rId268" display="http://www.roughguides.com/country/rwanda/"/>
+    <hyperlink ref="B117" r:id="rId269" display="http://www.roughguides.com/country/samoa/"/>
+    <hyperlink ref="B118" r:id="rId270" display="http://www.roughguides.com/country/saudi-arabia/"/>
+    <hyperlink ref="B119" r:id="rId271" display="http://www.roughguides.com/destinations/europe/scotland"/>
+    <hyperlink ref="B120" r:id="rId272" display="http://www.roughguides.com/country/senegal/"/>
+    <hyperlink ref="B121" r:id="rId273" display="http://www.roughguides.com/destinations/europe/serbia"/>
+    <hyperlink ref="B122" r:id="rId274" display="http://www.roughguides.com/country/seychelles/"/>
+    <hyperlink ref="B123" r:id="rId275" display="http://www.roughguides.com/destinations/asia/singapore"/>
+    <hyperlink ref="B124" r:id="rId276" display="http://www.roughguides.com/destinations/europe/slovakia"/>
+    <hyperlink ref="B125" r:id="rId277" display="http://www.roughguides.com/destinations/europe/slovenia"/>
+    <hyperlink ref="B126" r:id="rId278" display="http://www.roughguides.com/destinations/africa/south-africa"/>
+    <hyperlink ref="B127" r:id="rId279" display="http://www.roughguides.com/destinations/asia/south-korea"/>
+    <hyperlink ref="B128" r:id="rId280" display="http://www.roughguides.com/destinations/europe/spain"/>
+    <hyperlink ref="B129" r:id="rId281" display="http://www.roughguides.com/destinations/asia/sri-lanka"/>
+    <hyperlink ref="B130" r:id="rId282" display="http://www.roughguides.com/country/sudan/"/>
+    <hyperlink ref="B131" r:id="rId283" display="http://www.roughguides.com/country/swaziland/"/>
+    <hyperlink ref="B132" r:id="rId284" display="http://www.roughguides.com/destinations/europe/sweden"/>
+    <hyperlink ref="B133" r:id="rId285" display="http://www.roughguides.com/destinations/europe/switzerland"/>
+    <hyperlink ref="B134" r:id="rId286" display="http://www.roughguides.com/country/syria/"/>
+    <hyperlink ref="B135" r:id="rId287" display="http://www.roughguides.com/destinations/asia/taiwan"/>
+    <hyperlink ref="B136" r:id="rId288" display="http://www.roughguides.com/country/tanzania-zanzibar/"/>
+    <hyperlink ref="B137" r:id="rId289" display="http://www.roughguides.com/destinations/asia/thailand"/>
+    <hyperlink ref="B138" r:id="rId290" display="http://www.roughguides.com/destinations/central-america-the-caribbean/trinidad-tobago"/>
+    <hyperlink ref="B139" r:id="rId291" display="http://www.roughguides.com/country/tunisia/"/>
+    <hyperlink ref="B140" r:id="rId292" display="http://www.roughguides.com/destinations/europe/turkey"/>
+    <hyperlink ref="B141" r:id="rId293" display="http://www.roughguides.com/country/turkmenistan/"/>
+    <hyperlink ref="B142" r:id="rId294" display="http://www.roughguides.com/country/tuvalu/"/>
+    <hyperlink ref="B143" r:id="rId295" display="http://www.roughguides.com/country/uganda/"/>
+    <hyperlink ref="B144" r:id="rId296" display="http://www.roughguides.com/country/ukraine/"/>
+    <hyperlink ref="B145" r:id="rId297" display="http://www.roughguides.com/country/united-arab-emirates/"/>
+    <hyperlink ref="B146" r:id="rId298" display="http://www.roughguides.com/country/gb/"/>
+    <hyperlink ref="B147" r:id="rId299" display="http://www.roughguides.com/country/uruguay/"/>
+    <hyperlink ref="B148" r:id="rId300" display="http://www.roughguides.com/destinations/north-america/usa"/>
+    <hyperlink ref="B149" r:id="rId301" display="http://www.roughguides.com/country/uzbekistan/"/>
+    <hyperlink ref="B150" r:id="rId302" display="http://www.roughguides.com/country/vanuatu/"/>
+    <hyperlink ref="B151" r:id="rId303" display="http://www.roughguides.com/country/venezuela/"/>
+    <hyperlink ref="B152" r:id="rId304" display="http://www.roughguides.com/destinations/asia/vietnam"/>
+    <hyperlink ref="B153" r:id="rId305" display="http://www.roughguides.com/destinations/europe/wales"/>
+    <hyperlink ref="B154" r:id="rId306" display="http://www.roughguides.com/country/yemen/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
